--- a/xlsx/战略计划_intext.xlsx
+++ b/xlsx/战略计划_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E6%A8%A1%E5%9E%8B</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
